--- a/biology/Botanique/Poivre_blanc_de_Penja/Poivre_blanc_de_Penja.xlsx
+++ b/biology/Botanique/Poivre_blanc_de_Penja/Poivre_blanc_de_Penja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poivre blanc de Penja est une variété de poivre du Cameroun.
 </t>
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture du poivre a été introduite au Cameroun par Antoine Decré, planteur de bananes à Penja, qui a décidé d'implanter dans cette zone, reconnue pour son terroir volcanique, quelques lianes de Piper nigrum provenant d'Inde. La première exportation, un sac de 40 kg de poivre blanc, a eu lieu en mars 1958.
 Très peu de plantations de bananes consacrent une partie de leurs terres à cette nouvelle culture. La culture du poivre reste confidentielle (et non industrielle) et très peu vouée à l'exportation (quelques tonnes par an maximum).
 L'aventure continue[Quand ?] avec l'implication de Paul Breton, Pierre Aubriet, Erwann de Kerros puis Dick Scott. Aujourd'hui la culture se développe et offre à de nombreux petits planteurs la possibilité de cultiver ce roi des épices, culture exigeante, délicate et de longue haleine.
-En 2013, le poivre de Penja a obtenu la première Indication géographique protégée africaine[1]. Véritable consécration pour ce poivre si apprécié[2] par les chefs[3] et les fins gourmets[4].
+En 2013, le poivre de Penja a obtenu la première Indication géographique protégée africaine. Véritable consécration pour ce poivre si apprécié par les chefs et les fins gourmets.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il appartient à l'espèce Piper nigrum (famille des Pipéracées) qui se décline en poivres vert, noir, blanc ou gris selon le stade de maturité à la récolte et les procédés de transformation. 
 Le genre Piper comprend également d'autres espèces qui offrent des poivres riches en arômes comme le poivre sauvage de Madagascar « voatsiperifery » de l'espèce Piper borbonense.
@@ -578,7 +594,9 @@
           <t>Transformation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poivre de Penja est récolté lorsqu'il est rouge. Il est mis à fermenter dans des tonneaux remplis d'eau. Les enveloppes rouges des fruits se détachent et s'accumulent à la surface, emportées lors de l'ascension du gaz carbonique. En fin de fermentation, les fruits sans peau devenus blancs sont égouttés et mis à sécher.
 </t>
@@ -609,7 +627,9 @@
           <t>Saveurs et accords</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poivre blanc de Penja est long en bouche et très légèrement piquant. Il est doux et raffiné. 
 </t>
